--- a/BackTest/2019-10-29 BackTest TRX.xlsx
+++ b/BackTest/2019-10-29 BackTest TRX.xlsx
@@ -451,17 +451,13 @@
         <v>23.085</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>23</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>23.08</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>23</v>
-      </c>
-      <c r="K3" t="n">
-        <v>23</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>23.08</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>23.08</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>23.075</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>23.07</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,22 +661,14 @@
         <v>23.065</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -744,22 +696,14 @@
         <v>23.06000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,22 +731,14 @@
         <v>23.065</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -830,22 +766,14 @@
         <v>23.065</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -873,22 +801,14 @@
         <v>23.065</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -916,22 +836,14 @@
         <v>23.07</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,22 +871,14 @@
         <v>23.075</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,22 +906,14 @@
         <v>23.085</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1045,22 +941,14 @@
         <v>23.1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1088,22 +976,14 @@
         <v>23.115</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,22 +1011,14 @@
         <v>23.13</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,22 +1046,14 @@
         <v>23.15000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1081,14 @@
         <v>23.17000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1266,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1348,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1389,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1430,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1471,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1512,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1553,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1594,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1635,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1676,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1717,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1758,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1799,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1840,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1881,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1922,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1963,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2004,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2045,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2086,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2127,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2168,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2209,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2291,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2332,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2373,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2414,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2455,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2496,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2537,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2578,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2619,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2660,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2701,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2742,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2783,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2824,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2865,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2906,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2947,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2988,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3029,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3070,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3111,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3152,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3193,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3234,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3275,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3316,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3357,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3398,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3439,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3480,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3521,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3562,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3603,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3644,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3685,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3726,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3767,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3808,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3849,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3890,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3931,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3972,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4013,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4054,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4095,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4136,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4177,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4218,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4259,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4341,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4382,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4423,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4464,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4505,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4546,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4587,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4628,16 +3992,10 @@
         <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>1.064264069264069</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4841,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -5261,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -11698,14 +11056,20 @@
         <v>23.48999999999999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11740,7 +11104,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11768,14 +11136,20 @@
         <v>23.46999999999998</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11803,14 +11177,20 @@
         <v>23.46499999999998</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>23.3</v>
+      </c>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11838,14 +11218,20 @@
         <v>23.45999999999998</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11873,14 +11259,20 @@
         <v>23.45499999999998</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11908,14 +11300,20 @@
         <v>23.44999999999998</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11943,14 +11341,20 @@
         <v>23.44499999999998</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>23.4</v>
+      </c>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11978,14 +11382,20 @@
         <v>23.43999999999998</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>23.5</v>
+      </c>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12020,7 +11430,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12055,7 +11469,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12090,7 +11508,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12125,7 +11547,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12160,7 +11586,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12195,7 +11625,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12230,7 +11664,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12265,7 +11703,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12300,7 +11742,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +11781,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12370,7 +11820,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12405,7 +11859,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12440,7 +11898,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12475,7 +11937,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12510,7 +11976,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12545,7 +12015,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12580,7 +12054,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12615,7 +12093,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12650,7 +12132,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12685,7 +12171,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12720,7 +12210,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12755,7 +12249,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12790,7 +12288,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12825,7 +12327,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12860,7 +12366,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12895,7 +12405,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12930,7 +12444,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12965,7 +12483,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13000,7 +12522,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13035,7 +12561,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13070,7 +12600,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13105,7 +12639,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13140,7 +12678,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13175,7 +12717,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13210,7 +12756,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13245,7 +12795,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13280,7 +12834,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13315,7 +12873,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13350,7 +12912,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13385,7 +12951,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13420,7 +12990,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13455,7 +13029,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13068,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13525,7 +13107,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13560,7 +13146,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13595,7 +13185,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13630,7 +13224,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13665,7 +13263,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13700,7 +13302,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13735,7 +13341,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13770,7 +13380,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13805,7 +13419,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13840,7 +13458,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13875,7 +13497,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13910,7 +13536,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13945,7 +13575,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13980,7 +13614,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14015,7 +13653,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14050,7 +13692,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14085,7 +13731,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14120,7 +13770,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14155,7 +13809,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14190,7 +13848,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14225,7 +13887,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14260,7 +13926,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14295,7 +13965,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14330,7 +14004,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14365,7 +14043,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14400,7 +14082,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14435,7 +14121,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14470,7 +14160,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14505,7 +14199,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14540,7 +14238,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14575,7 +14277,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14610,7 +14316,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +14355,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14680,7 +14394,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14715,7 +14433,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14750,7 +14472,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14785,7 +14511,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14820,7 +14550,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14855,7 +14589,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14890,7 +14628,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14925,7 +14667,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14960,7 +14706,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14995,7 +14745,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15030,7 +14784,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15065,7 +14823,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15100,7 +14862,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15135,7 +14901,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15170,7 +14940,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15205,7 +14979,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15240,7 +15018,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15275,7 +15057,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15310,7 +15096,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15345,7 +15135,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15380,7 +15174,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15415,7 +15213,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15450,7 +15252,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15485,7 +15291,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15520,7 +15330,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15555,7 +15369,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15590,7 +15408,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15625,7 +15447,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15660,7 +15486,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15695,7 +15525,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15730,7 +15564,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15765,7 +15603,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +15642,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15835,7 +15681,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15870,7 +15720,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15905,7 +15759,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15940,7 +15798,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15975,7 +15837,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16010,7 +15876,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16045,7 +15915,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16080,7 +15954,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16115,7 +15993,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16150,7 +16032,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16185,7 +16071,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16220,7 +16110,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16255,7 +16149,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16290,7 +16188,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16325,7 +16227,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16360,7 +16266,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16395,7 +16305,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16430,7 +16344,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16465,7 +16383,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16500,7 +16422,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16535,7 +16461,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16570,7 +16500,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16605,7 +16539,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16640,7 +16578,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16675,7 +16617,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16710,7 +16656,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16745,7 +16695,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16780,7 +16734,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16815,7 +16773,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16850,7 +16812,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16885,7 +16851,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16920,7 +16890,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +16929,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16990,7 +16968,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17025,7 +17007,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17060,7 +17046,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17095,7 +17085,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17130,7 +17124,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17165,7 +17163,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17200,7 +17202,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17235,7 +17241,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17270,7 +17280,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17305,7 +17319,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17340,7 +17358,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17375,7 +17397,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17410,7 +17436,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17445,7 +17475,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17480,7 +17514,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17515,7 +17553,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17550,7 +17592,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17585,7 +17631,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17620,7 +17670,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17655,7 +17709,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17690,7 +17748,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17725,7 +17787,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17760,7 +17826,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17795,7 +17865,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17830,7 +17904,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17865,7 +17943,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17900,7 +17982,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17935,7 +18021,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17970,7 +18060,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18005,7 +18099,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18040,7 +18138,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18075,7 +18177,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +18216,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18145,7 +18255,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18180,7 +18294,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18215,7 +18333,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18250,7 +18372,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18285,7 +18411,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18320,7 +18450,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18355,7 +18489,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18390,7 +18528,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18425,7 +18567,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18460,7 +18606,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18495,7 +18645,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18530,7 +18684,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18565,7 +18723,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18600,7 +18762,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18635,7 +18801,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18670,7 +18840,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18705,7 +18879,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18740,7 +18918,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18775,7 +18957,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18810,7 +18996,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18845,7 +19035,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18880,7 +19074,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18915,7 +19113,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18950,7 +19152,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18985,7 +19191,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19020,7 +19230,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19055,7 +19269,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19090,7 +19308,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19125,7 +19347,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19160,7 +19386,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19195,7 +19425,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19230,7 +19464,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +19503,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19300,7 +19542,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19335,7 +19581,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19370,7 +19620,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19405,7 +19659,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19440,7 +19698,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19475,7 +19737,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19510,7 +19776,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19545,7 +19815,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19580,7 +19854,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19615,7 +19893,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19650,7 +19932,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19685,7 +19971,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19720,7 +20010,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19755,7 +20049,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19790,7 +20088,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19825,7 +20127,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19860,7 +20166,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19895,7 +20205,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19930,7 +20244,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19965,7 +20283,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20000,7 +20322,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20035,7 +20361,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20070,7 +20400,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20105,7 +20439,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20140,7 +20478,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20175,7 +20517,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20210,7 +20556,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20245,7 +20595,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20280,7 +20634,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20315,7 +20673,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20350,7 +20712,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20385,7 +20751,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20790,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20455,7 +20829,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20490,7 +20868,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20525,7 +20907,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20560,7 +20946,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20595,7 +20985,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20630,7 +21024,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20665,7 +21063,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20700,7 +21102,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20735,7 +21141,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20770,7 +21180,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20805,7 +21219,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20840,7 +21258,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20875,7 +21297,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20910,7 +21336,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20945,7 +21375,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20980,7 +21414,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21015,7 +21453,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21050,7 +21492,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21085,7 +21531,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21120,7 +21570,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21155,7 +21609,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21190,7 +21648,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21225,7 +21687,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21260,7 +21726,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21295,7 +21765,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21330,7 +21804,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21365,7 +21843,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21400,7 +21882,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21435,7 +21921,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21470,7 +21960,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21505,7 +21999,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21540,7 +22038,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21575,7 +22077,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21610,7 +22116,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21645,7 +22155,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21680,7 +22194,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21715,7 +22233,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21750,7 +22272,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21785,7 +22311,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21820,7 +22350,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21855,7 +22389,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21890,7 +22428,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21925,7 +22467,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21960,7 +22506,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21995,7 +22545,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22030,7 +22584,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22065,7 +22623,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22100,7 +22662,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22135,7 +22701,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22170,7 +22740,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22205,7 +22779,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22240,7 +22818,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22275,7 +22857,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22310,7 +22896,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22345,7 +22935,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22380,7 +22974,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22415,7 +23013,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22450,7 +23052,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22485,7 +23091,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22520,7 +23130,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22555,7 +23169,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22590,7 +23208,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22625,7 +23247,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22660,7 +23286,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22695,7 +23325,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22730,7 +23364,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22765,7 +23403,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22800,7 +23442,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22835,7 +23481,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22870,7 +23520,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22905,7 +23559,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22940,7 +23598,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22975,7 +23637,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23010,7 +23676,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23045,7 +23715,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23080,7 +23754,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23115,7 +23793,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23150,7 +23832,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23185,7 +23871,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23220,7 +23910,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23255,7 +23949,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23290,7 +23988,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23325,7 +24027,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23360,7 +24066,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23395,7 +24105,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23430,7 +24144,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23465,7 +24183,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23500,7 +24222,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23535,7 +24261,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23570,7 +24300,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23605,7 +24339,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23640,7 +24378,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23675,7 +24417,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23710,7 +24456,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23745,7 +24495,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23780,7 +24534,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23815,7 +24573,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23850,7 +24612,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +24651,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23920,7 +24690,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23955,7 +24729,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23990,7 +24768,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -24025,7 +24807,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24060,7 +24846,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24095,7 +24885,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24130,7 +24924,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24165,7 +24963,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24200,7 +25002,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24235,7 +25041,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24270,7 +25080,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24305,7 +25119,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24340,7 +25158,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24375,7 +25197,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24410,7 +25236,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24445,7 +25275,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24480,7 +25314,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24515,7 +25353,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24550,7 +25392,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24585,7 +25431,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24620,7 +25470,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24655,7 +25509,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24690,7 +25548,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24725,7 +25587,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24760,7 +25626,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24795,7 +25665,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24830,7 +25704,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24865,7 +25743,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24900,7 +25782,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24935,7 +25821,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24970,7 +25860,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -25005,7 +25899,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -25040,7 +25938,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25075,7 +25977,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25110,7 +26016,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25145,7 +26055,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25180,7 +26094,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25215,7 +26133,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25250,7 +26172,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25285,7 +26211,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25320,7 +26250,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25355,7 +26289,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25390,7 +26328,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25425,7 +26367,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25460,7 +26406,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25495,7 +26445,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25530,7 +26484,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25565,7 +26523,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25600,7 +26562,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25635,7 +26601,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25670,7 +26640,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25705,7 +26679,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25740,7 +26718,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25775,7 +26757,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25810,7 +26796,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25845,7 +26835,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25880,7 +26874,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25915,7 +26913,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25950,7 +26952,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25985,7 +26991,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -26020,7 +27030,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -26055,7 +27069,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -26090,7 +27108,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -26125,7 +27147,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -26160,7 +27186,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +27225,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -26230,7 +27264,11 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -26265,7 +27303,11 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26300,7 +27342,11 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26335,7 +27381,11 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26370,7 +27420,11 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26405,7 +27459,11 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26440,7 +27498,11 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26475,7 +27537,11 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26510,7 +27576,11 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26545,7 +27615,11 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26580,7 +27654,11 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26615,7 +27693,11 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26650,7 +27732,11 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26685,7 +27771,11 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26720,7 +27810,11 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26755,7 +27849,11 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26790,7 +27888,11 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26825,7 +27927,11 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26860,7 +27966,11 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26895,7 +28005,11 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26930,7 +28044,11 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26965,7 +28083,11 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -27000,7 +28122,11 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -27035,7 +28161,11 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -27070,7 +28200,11 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -27105,7 +28239,11 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -27140,7 +28278,11 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -27175,7 +28317,11 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -27210,7 +28356,11 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -27245,7 +28395,11 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27280,7 +28434,11 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27315,7 +28473,11 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +28512,11 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27385,7 +28551,11 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27420,7 +28590,11 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27455,7 +28629,11 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27490,7 +28668,11 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27525,7 +28707,11 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27560,7 +28746,11 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27595,7 +28785,11 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27630,7 +28824,11 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27665,7 +28863,11 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27700,7 +28902,11 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27735,7 +28941,11 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27770,7 +28980,11 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27805,7 +29019,11 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27840,7 +29058,11 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27875,7 +29097,11 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27910,7 +29136,11 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27945,7 +29175,11 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27980,7 +29214,11 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -28015,7 +29253,11 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -28050,7 +29292,11 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -28085,7 +29331,11 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -28120,7 +29370,11 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -28155,7 +29409,11 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -28190,7 +29448,11 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -28225,7 +29487,11 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -28260,7 +29526,11 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -28295,7 +29565,11 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -28330,7 +29604,11 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -28365,7 +29643,11 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -28400,7 +29682,11 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -28435,7 +29721,11 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -28470,7 +29760,11 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +29799,11 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -28540,7 +29838,11 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -28575,7 +29877,11 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -28606,11 +29912,15 @@
         <v>0</v>
       </c>
       <c r="I788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -28641,11 +29951,15 @@
         <v>0</v>
       </c>
       <c r="I789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -28676,11 +29990,15 @@
         <v>0</v>
       </c>
       <c r="I790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -28715,7 +30033,11 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28750,7 +30072,11 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28785,7 +30111,11 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28820,7 +30150,11 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28855,7 +30189,11 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28890,7 +30228,11 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28925,7 +30267,11 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -28960,7 +30306,11 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -28995,7 +30345,11 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -29030,7 +30384,11 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -29065,7 +30423,11 @@
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -29100,7 +30462,11 @@
       </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -29135,7 +30501,11 @@
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -29170,7 +30540,11 @@
       </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -29205,7 +30579,11 @@
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -29240,7 +30618,11 @@
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -29275,7 +30657,11 @@
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -29310,7 +30696,11 @@
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -29345,7 +30735,11 @@
       </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -29380,7 +30774,11 @@
       </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -29415,7 +30813,11 @@
       </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -29450,7 +30852,11 @@
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -29485,7 +30891,11 @@
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -29520,7 +30930,11 @@
       </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -29555,7 +30969,11 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -29590,7 +31008,11 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -29625,7 +31047,11 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +31086,11 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -29695,7 +31125,11 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -29730,7 +31164,11 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -29765,7 +31203,11 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -29800,7 +31242,11 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -29835,7 +31281,11 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -29870,7 +31320,11 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -29905,7 +31359,11 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -29940,7 +31398,11 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -29975,7 +31437,11 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -30010,7 +31476,11 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -30045,7 +31515,11 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -30080,7 +31554,11 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -30115,7 +31593,11 @@
       </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr"/>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -30150,7 +31632,11 @@
       </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr"/>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -30185,7 +31671,11 @@
       </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -30220,7 +31710,11 @@
       </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr"/>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -30251,14 +31745,16 @@
         <v>0</v>
       </c>
       <c r="I835" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr"/>
-      <c r="M835" t="n">
-        <v>1</v>
-      </c>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" s="1" t="n">
@@ -30286,7 +31782,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
